--- a/data/trans_camb/P1801_2016_2023-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1801_2016_2023-Provincia-trans_camb.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>15.05984564377615</v>
+        <v>15.05984564377617</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>17.69722773406187</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.307593011771938</v>
+        <v>6.71675899615789</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>9.629169983203408</v>
+        <v>11.13636961984673</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.57529594924898</v>
+        <v>10.07501970625748</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>22.96752555537249</v>
+        <v>23.0296388761756</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>25.19671843168828</v>
+        <v>25.05519153931966</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21.96482621875742</v>
+        <v>21.46723211869071</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>0.3104519261926691</v>
+        <v>0.3104519261926693</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>0.3310785832033042</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1165540983528161</v>
+        <v>0.125545125279286</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1648000405583539</v>
+        <v>0.1958424198905636</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.191317478407948</v>
+        <v>0.1915519594397223</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5205540810077318</v>
+        <v>0.534094186094757</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5252866051650272</v>
+        <v>0.5204538946195381</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4605863572537681</v>
+        <v>0.453050751339078</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>-21.63723617095788</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-28.24124349637847</v>
+        <v>-28.24124349637846</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-25.02076548689519</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-28.18905985275027</v>
+        <v>-27.65458738667673</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-34.22057591544041</v>
+        <v>-33.7156808409738</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-29.16872914184822</v>
+        <v>-28.98720653460235</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-14.73440624743596</v>
+        <v>-14.93726526441045</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-21.90016803861435</v>
+        <v>-22.41906540562149</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-20.70262455402262</v>
+        <v>-20.58650730188325</v>
       </c>
     </row>
     <row r="13">
@@ -724,7 +724,7 @@
         <v>-0.463078324293086</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.4886921399178479</v>
+        <v>-0.4886921399178478</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.4777897305823068</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5651566893749654</v>
+        <v>-0.5682940731603556</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5609531340896188</v>
+        <v>-0.5586106577949982</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5378512892064178</v>
+        <v>-0.5339107206663435</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.3360972607460609</v>
+        <v>-0.3411937215395897</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.4088180036376523</v>
+        <v>-0.4103847127438006</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.4124949364857541</v>
+        <v>-0.4093802508532921</v>
       </c>
     </row>
     <row r="16">
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>22.17201833212157</v>
+        <v>22.17201833212158</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>12.74355430374015</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17.38250341714004</v>
+        <v>17.38250341714006</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>14.55191742891998</v>
+        <v>14.08447739456065</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.336505246471596</v>
+        <v>5.517060837336222</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12.24201857002407</v>
+        <v>12.42467148549065</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>30.0301236858027</v>
+        <v>29.31012383444821</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>19.63795626954559</v>
+        <v>19.58012240961809</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>22.5857374680049</v>
+        <v>22.50824194628875</v>
       </c>
     </row>
     <row r="19">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>0.5177742677424068</v>
+        <v>0.517774267742407</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>0.2293800917048013</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.3521457997398969</v>
+        <v>0.3521457997398973</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.3216203958329945</v>
+        <v>0.2946999956548295</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.09017568244842447</v>
+        <v>0.09174186495440456</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2302825856596791</v>
+        <v>0.2357381737073772</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7911477676833256</v>
+        <v>0.7405286723304895</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3868816978840297</v>
+        <v>0.3790013227403772</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.4819803447270882</v>
+        <v>0.4811966560427064</v>
       </c>
     </row>
     <row r="22">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-5.459493636240254</v>
+        <v>-5.459493636240264</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>-7.995496228313693</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-6.684453207076868</v>
+        <v>-6.68445320707688</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-13.68708803084256</v>
+        <v>-14.61016570681009</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-14.39797316464352</v>
+        <v>-15.07031761852726</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-11.94143747799702</v>
+        <v>-11.92614705234321</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.390655623128284</v>
+        <v>3.967402453887189</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.2780516421553824</v>
+        <v>-0.9318811365082027</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.6886065364197712</v>
+        <v>-1.443420989677417</v>
       </c>
     </row>
     <row r="25">
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>-0.0989044587827789</v>
+        <v>-0.09890445878277911</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>-0.1297930513606522</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1143149850725622</v>
+        <v>-0.1143149850725623</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2396742028466196</v>
+        <v>-0.2501149762499569</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2217269407719147</v>
+        <v>-0.2348341018489582</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1971963308113757</v>
+        <v>-0.198108986358281</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.0446353516102484</v>
+        <v>0.07555430424809195</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.00728762759482215</v>
+        <v>-0.01654250695007951</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.01266713697598187</v>
+        <v>-0.02422485515475252</v>
       </c>
     </row>
     <row r="28">
@@ -991,7 +991,7 @@
         <v>10.09540640229507</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>12.12909287794739</v>
+        <v>12.12909287794738</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>11.30366787341008</v>
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.011496928512112</v>
+        <v>0.7480422704608503</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.600050617977071</v>
+        <v>4.037478404946393</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5.013060595256808</v>
+        <v>4.894480513622386</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>19.38714054131098</v>
+        <v>18.68979404521985</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>20.60361793865599</v>
+        <v>19.95174638278713</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17.56338184766111</v>
+        <v>17.2966169690004</v>
       </c>
     </row>
     <row r="31">
@@ -1042,7 +1042,7 @@
         <v>0.2197288453406978</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.2222634913681552</v>
+        <v>0.222263491368155</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>0.2245833526231564</v>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.02376327243078377</v>
+        <v>0.0172822284321557</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.06131728997321985</v>
+        <v>0.06911527654516886</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.09150204236226127</v>
+        <v>0.09206356380419789</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4955440973106104</v>
+        <v>0.4618863902941587</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4172939641128428</v>
+        <v>0.4137311523160382</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3787692631659469</v>
+        <v>0.3696828259142788</v>
       </c>
     </row>
     <row r="34">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.5805391883217246</v>
+        <v>-0.6692833860515515</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>1.580731596027636</v>
+        <v>0.9002754666286296</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2.074570544996799</v>
+        <v>2.332592066124821</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>15.99756908411749</v>
+        <v>15.90235727737242</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>17.24353201852752</v>
+        <v>17.80802092118201</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>13.03375838671442</v>
+        <v>13.42552007005856</v>
       </c>
     </row>
     <row r="37">
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.01231433296890659</v>
+        <v>-0.01094693415468747</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.02430427882934842</v>
+        <v>0.01475634410770153</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.03885863038942058</v>
+        <v>0.03834265636355161</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.331659758888431</v>
+        <v>0.3337583375117547</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3192987819758565</v>
+        <v>0.3248785715977374</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.2483888287213292</v>
+        <v>0.2492856209177564</v>
       </c>
     </row>
     <row r="40">
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="C40" s="5" t="n">
-        <v>24.02011516147891</v>
+        <v>24.02011516147889</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>21.55474884372999</v>
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>18.19571586369671</v>
+        <v>18.49473116887761</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>16.63127058192362</v>
+        <v>16.8769331434885</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>18.8517154673345</v>
+        <v>19.19289380011446</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>29.92174862571624</v>
+        <v>30.24366729946434</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>26.46263056009739</v>
+        <v>26.58063492260095</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>27.04654275720842</v>
+        <v>27.04426067973837</v>
       </c>
     </row>
     <row r="43">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="C43" s="6" t="n">
-        <v>0.6764451017430529</v>
+        <v>0.6764451017430526</v>
       </c>
       <c r="D43" s="6" t="n">
         <v>0.4385394465165307</v>
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.47426245023508</v>
+        <v>0.4831145128589851</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.3208635145297695</v>
+        <v>0.3233382667421684</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.4316024008382152</v>
+        <v>0.4265610650027428</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.928622675052428</v>
+        <v>0.9237466518110472</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.571742820308403</v>
+        <v>0.580148746684971</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.6740670118218484</v>
+        <v>0.6721084738043597</v>
       </c>
     </row>
     <row r="46">
@@ -1309,10 +1309,10 @@
         <v>-17.71359240964575</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>-20.39396737526197</v>
+        <v>-20.39396737526198</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-19.13930646427942</v>
+        <v>-19.13930646427943</v>
       </c>
     </row>
     <row r="47">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-22.66630399637217</v>
+        <v>-22.81436009315961</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-24.74115579924397</v>
+        <v>-25.19889610601627</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-22.60295090111605</v>
+        <v>-22.74068494305841</v>
       </c>
     </row>
     <row r="48">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-12.61022240078742</v>
+        <v>-13.06438318083041</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-15.54996752114168</v>
+        <v>-15.67056150378557</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-15.70333181942062</v>
+        <v>-15.90920156869208</v>
       </c>
     </row>
     <row r="49">
@@ -1360,10 +1360,10 @@
         <v>-0.3514514236116097</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>-0.3237525367834237</v>
+        <v>-0.3237525367834239</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.3364648053448076</v>
+        <v>-0.3364648053448078</v>
       </c>
     </row>
     <row r="50">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.4262243467859932</v>
+        <v>-0.4308004860755466</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3788962622193047</v>
+        <v>-0.3845822699435927</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.3849356912114202</v>
+        <v>-0.385884883743278</v>
       </c>
     </row>
     <row r="51">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.2619411283312369</v>
+        <v>-0.2714814051076714</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.2566565329719298</v>
+        <v>-0.2572497899309957</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.2860431826915202</v>
+        <v>-0.2865758112147827</v>
       </c>
     </row>
     <row r="52">
@@ -1418,7 +1418,7 @@
         <v>-1.203517398724518</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>0.1016593423970424</v>
+        <v>0.1016593423970535</v>
       </c>
     </row>
     <row r="53">
@@ -1429,13 +1429,13 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1.151022346531676</v>
+        <v>-0.9220208681521264</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-3.243874909538309</v>
+        <v>-3.306429203501491</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-1.59613398478423</v>
+        <v>-1.771477178192726</v>
       </c>
     </row>
     <row r="54">
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>4.015364852886077</v>
+        <v>3.766670839461992</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.009616988190073</v>
+        <v>1.171999919898915</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1.722183362616081</v>
+        <v>1.695901528982459</v>
       </c>
     </row>
     <row r="55">
@@ -1469,7 +1469,7 @@
         <v>-0.02106871878043899</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.001957542223529986</v>
+        <v>0.0019575422235302</v>
       </c>
     </row>
     <row r="56">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.02436817335017546</v>
+        <v>-0.01965234578439843</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.05599388465758379</v>
+        <v>-0.05661867472545432</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.03037508383971962</v>
+        <v>-0.03332447848522248</v>
       </c>
     </row>
     <row r="57">
@@ -1497,13 +1497,13 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.08806052305553388</v>
+        <v>0.08284002203641359</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.01804582170116508</v>
+        <v>0.02088023107043351</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.03379127610301773</v>
+        <v>0.03343734777958395</v>
       </c>
     </row>
     <row r="58">
